--- a/green/sql_221124/새 Microsoft Excel 워크시트.xlsx
+++ b/green/sql_221124/새 Microsoft Excel 워크시트.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="369">
   <si>
     <t>제품 이미지</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -936,6 +936,553 @@
   </si>
   <si>
     <t>erd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_pwd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_address</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_phone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_business_no</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_reg_dt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 기본키</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 아이디</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 비밀번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 주소</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 전화번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 사업자번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 가입일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 상태(1.정상/2.정지)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbi_si_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(seller_info::si_seq)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>seller_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자는 당장 사용은안해도 서비스 확장성을 생각해서 미리 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_pwd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_birth</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_gen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_address</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_phone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_email</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_reg_dt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_grade</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi_nickname</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>default now()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별(0.선택안함,1.남,2.여)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원상태(1.정상,2.정지,3.영구정지,4.탈퇴대기)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급(1~7)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(member_grade_info::mgi_seq)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_grade_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgi_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgi_prev_payment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgi_point_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgi_benefit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgi_max_point</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgi_gift</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgi_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgi_review_point_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0.001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 등급 번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급 명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전월 실적 기준 금액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립율</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 혜택 금액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 적립 가능 금액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 포인트 유무(0:무/1:유)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물유무(0:무/1:유)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_reg_dt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_mi_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(product_basic_info::pbi_seq)</t>
+  </si>
+  <si>
+    <t>foreign key(member_info::mi_seq)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri_pbi_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록 회원번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록 제품번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_answer_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rai_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rai_content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rai_ri_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rai_reg_dt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(review_info::ri_seq)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 리뷰 번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 등록일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_image_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rii_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rii_filename</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rii_ri_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key(reivew_info::ri_seq)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 파일 명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 이미지 번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_likes</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_ri_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_mi_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 좋아요 번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크여부(0.해제/1.체크)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl_click</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_qna</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_reg_dt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_mi_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_answer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_answer_dt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_pbi_seq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 글 번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변등록일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbi_date</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1141,7 +1688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1196,6 +1743,30 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1262,7 +1833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1275,9 +1846,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="14" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="15" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="18" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
@@ -1292,10 +1860,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - 강조색1" xfId="4" builtinId="30"/>
@@ -1597,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:G32"/>
     </sheetView>
   </sheetViews>
@@ -1796,10 +2385,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1998,39 +2587,39 @@
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2083,18 +2672,18 @@
       <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2102,30 +2691,30 @@
       <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2138,33 +2727,33 @@
       <c r="A46" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2172,42 +2761,42 @@
       <c r="A49" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2255,16 +2844,16 @@
       <c r="A56" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2272,13 +2861,13 @@
       <c r="A58" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2303,27 +2892,27 @@
       <c r="A62" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2339,1330 +2928,2696 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P80"/>
+  <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>1</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>2</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>4</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>5</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>6</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>7</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>9</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>10</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>11</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>12</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>13</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>14</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>15</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>1</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>2</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>3</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>4</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>5</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>1</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>2</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>3</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>1</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>2</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
+        <v>1</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
+        <v>2</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>3</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <v>4</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="26"/>
+      <c r="L52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="26"/>
+      <c r="L53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
+        <v>1</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <v>3</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
+        <v>4</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <v>5</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <v>6</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
+        <v>7</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="21">
+        <v>8</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="21">
+        <v>9</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D62" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
-        <v>14</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="26"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" s="26"/>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M65" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N65" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O65" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P65" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
         <v>1</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="B66" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M66" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N66" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O66" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P66" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
         <v>2</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="B67" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="21">
         <v>3</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="B68" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="21">
         <v>4</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="B69" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="21">
         <v>5</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="B70" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="21">
+        <v>6</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="21">
+        <v>7</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="21">
+        <v>8</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="21">
+        <v>9</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="36"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="21">
         <v>1</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="B79" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="21">
         <v>2</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+      <c r="B80" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="21">
         <v>3</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
+      <c r="B81" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="21">
+        <v>4</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="21">
+        <v>5</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="21">
+        <v>6</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="21">
+        <v>7</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
+        <v>8</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="21">
+        <v>9</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="21">
+        <v>10</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="21">
+        <v>11</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="21">
+        <v>12</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="21">
+        <v>13</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="36"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="21">
         <v>1</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+      <c r="B95" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="21">
         <v>2</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+      <c r="B96" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="21">
+        <v>3</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="21">
+        <v>4</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="21">
+        <v>5</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="21">
+        <v>6</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="21">
+        <v>7</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="21">
+        <v>8</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="B104" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="36"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="B105" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D105" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E105" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F105" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G105" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="22">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="21">
         <v>1</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="25" t="s">
+      <c r="B106" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F106" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="G106" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="21">
         <v>2</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="B107" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="21">
         <v>3</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="B108" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="21">
         <v>4</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+      <c r="B109" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E109" s="21"/>
+      <c r="F109" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="21">
+        <v>5</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E110" s="21"/>
+      <c r="F110" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="J110" t="s">
+        <v>33</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
+      <c r="B112" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="36"/>
+      <c r="J112" t="s">
+        <v>109</v>
+      </c>
+      <c r="K112" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M112" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="N112" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B113" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C113" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D113" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E113" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F113" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G113" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="21">
         <v>1</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="25" t="s">
+      <c r="B114" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E114" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F114" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G53" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="G114" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="J114" t="s">
+        <v>111</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M114" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="21">
         <v>2</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="B115" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" s="21">
         <v>3</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="B116" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E116" s="21"/>
+      <c r="F116" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="J116" t="s">
+        <v>114</v>
+      </c>
+      <c r="K116" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M116" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="21">
         <v>4</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
+      <c r="B117" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>38</v>
+      </c>
+      <c r="K118" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L118" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M118" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N118" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O118" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P118" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="36"/>
+      <c r="K119" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" s="21">
+        <v>1</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" s="21">
+        <v>2</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" s="21">
+        <v>3</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E123" s="21"/>
+      <c r="F123" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="36"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="21">
+        <v>1</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" s="21">
+        <v>2</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E128" s="21"/>
+      <c r="F128" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="21">
+        <v>3</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E129" s="21"/>
+      <c r="F129" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="21">
+        <v>4</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="36"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="21">
+        <v>1</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="21">
+        <v>2</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="21">
+        <v>3</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="21">
+        <v>4</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="21">
         <v>5</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="B138" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E138" s="21"/>
+      <c r="F138" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="21">
         <v>6</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="22">
+      <c r="B139" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E139" s="21"/>
+      <c r="F139" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="21">
         <v>7</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="22">
+      <c r="B140" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="21">
         <v>8</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="J63" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L63" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O63" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P63" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" s="28"/>
-      <c r="K64" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L64" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M64" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F66" t="s">
-        <v>230</v>
-      </c>
-      <c r="J66" t="s">
-        <v>93</v>
-      </c>
-      <c r="K66" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="L66" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="M66" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="N66" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="O66" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="P66" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F67" t="s">
-        <v>231</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M67" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="N67" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="O67" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="P67" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P69" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J71" t="s">
-        <v>33</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N71" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J73" t="s">
-        <v>109</v>
-      </c>
-      <c r="K73" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M73" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="N73" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J75" t="s">
-        <v>111</v>
-      </c>
-      <c r="K75" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="L75" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="M75" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J77" t="s">
-        <v>114</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J79" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L79" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M79" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N79" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="O79" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="P79" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="K80" s="20" t="s">
-        <v>45</v>
+      <c r="B141" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B40:G40"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>